--- a/spring-boot-excel/src/main/resources/alibaba/simple/simple07.xlsx
+++ b/spring-boot-excel/src/main/resources/alibaba/simple/simple07.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="simple " sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -22,6 +20,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>张</t>
     </r>
     <r>
@@ -41,10 +46,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -63,6 +68,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -78,7 +90,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,6 +180,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -108,105 +212,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFFFF00"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -222,187 +227,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,6 +418,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -431,30 +445,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -466,15 +456,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +480,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -513,6 +503,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -521,10 +526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -533,133 +538,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -742,7 +747,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1021,27 +1026,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1061,21 +1049,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>